--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_12.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,682 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.4, 13.72)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.171875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['A:7', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[['C:7', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.5, 23.02)]</t>
+          <t>[('0:00:43.926916', '0:00:50.765192')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07480106100795755</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.88, 12.78)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(18.3, 21.32)]</t>
+          <t>[('0:00:05.208150', '0:00:11.035850')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07146401985111663</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:01:34.800000', '0:01:46.960000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1825396825396825</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
+          <t>[['G', 'A', 'D', 'D/b7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.82, 107.92)]</t>
+          <t>[['C', 'D', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[('0:00:29.965374', '0:00:35.781972')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:15.705034', '0:01:20.407074')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(18.66, 20.74)]</t>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1004464285714286</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
+          <t>[('0:00:06.126439', '0:00:09.980952')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:03.605464', '0:00:10.966190')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.52, 25.4)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.22, 5.02)]</t>
+          <t>[('0:00:27.160000', '0:00:38.460000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:17.900000', '0:00:21.420000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:03:53.340000', '0:04:09.140000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[('0:00:06.415079', '0:00:16.608639')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:55.680000', '0:01:06.100000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4714285714285714</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(75.56, 95.68)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(113.14, 114.88)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(66.1, 84.78)]</t>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86), (34.66, 36.26), (8.26, 12.96)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(18.26, 24.82)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(113.02, 114.76)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(66.98, 83.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
